--- a/Results/IPCC_plot_data_2019-07-10.xlsx
+++ b/Results/IPCC_plot_data_2019-07-10.xlsx
@@ -11,12 +11,13 @@
     <sheet name="Total_GHG_gas" r:id="rId5" sheetId="3"/>
     <sheet name="CO2_budget" r:id="rId6" sheetId="4"/>
     <sheet name="Total_sector_rates_by_country" r:id="rId7" sheetId="5"/>
+    <sheet name="per_capita_trends" r:id="rId8" sheetId="6"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="233">
   <si>
     <t>WB.income</t>
   </si>
@@ -697,6 +698,24 @@
   </si>
   <si>
     <t>abs_growth</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>ghg_total</t>
+  </si>
+  <si>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>gdp</t>
+  </si>
+  <si>
+    <t>ghg_pc</t>
+  </si>
+  <si>
+    <t>ghg_gdp</t>
   </si>
 </sst>
 </file>
@@ -7752,4 +7771,4456 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F1" t="s">
+        <v>231</v>
+      </c>
+      <c r="G1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1970.0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.4243873374595425E10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.66116315E8</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.4650345168515E13</v>
+      </c>
+      <c r="F2" t="n">
+        <v>16.44568186502228</v>
+      </c>
+      <c r="G2" t="n">
+        <v>9.722551387531045E-4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1970.0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6.877721460456401E9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.419265053E9</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.8605208779214023E12</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4.845973939764443</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0036966644890006712</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1970.0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.9203564487772255E9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.177582248E9</v>
+      </c>
+      <c r="E4" t="n">
+        <v>6.365666595339521E11</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2.4799596408124738</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.004587667929255513</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1970.0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.0599575885376441E9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.07742819E8</v>
+      </c>
+      <c r="E5" t="n">
+        <v>6.051635132764258E10</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5.102258617842498</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.017515226303035196</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1971.0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.4281996190835037E10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8.74641442E8</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.5228664242936957E13</v>
+      </c>
+      <c r="F6" t="n">
+        <v>16.328972656700433</v>
+      </c>
+      <c r="G6" t="n">
+        <v>9.378364354877031E-4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1971.0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6.964985602660899E9</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.45235423E9</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.9917102162321729E12</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4.795652092851273</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0034969874361727897</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1971.0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3.0166066630402308E9</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.205294219E9</v>
+      </c>
+      <c r="E8" t="n">
+        <v>6.680730224783486E11</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2.5027969233462577</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.004515384638418018</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1971.0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.0653004166581719E9</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.13086091E8</v>
+      </c>
+      <c r="E9" t="n">
+        <v>6.307103558024724E10</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4.9993897380105015</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0168904855748366</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1972.0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.4900326244142185E10</v>
+      </c>
+      <c r="D10" t="n">
+        <v>8.83257993E8</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.6079273279386314E13</v>
+      </c>
+      <c r="F10" t="n">
+        <v>16.869732696709583</v>
+      </c>
+      <c r="G10" t="n">
+        <v>9.266790846352774E-4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1972.0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="n">
+        <v>7.246028137250715E9</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.485140597E9</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2.1596091460468684E12</v>
+      </c>
+      <c r="F11" t="n">
+        <v>4.879018290852577</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.0033552497916182933</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1972.0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3.1584169273386555E9</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1.233641287E9</v>
+      </c>
+      <c r="E12" t="n">
+        <v>6.827859215417179E11</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2.5602393180430703</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.004625779219652053</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1972.0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.0947408792389574E9</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2.18553185E8</v>
+      </c>
+      <c r="E13" t="n">
+        <v>6.439249583770365E10</v>
+      </c>
+      <c r="F13" t="n">
+        <v>5.009036492599993</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.01700106301203432</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1973.0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.5718589904357384E10</v>
+      </c>
+      <c r="D14" t="n">
+        <v>8.91868726E8</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1.7099822772260592E13</v>
+      </c>
+      <c r="F14" t="n">
+        <v>17.624331301372916</v>
+      </c>
+      <c r="G14" t="n">
+        <v>9.192253109111838E-4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1973.0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" t="n">
+        <v>7.693460509070939E9</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.517357188E9</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2.348522616188133E12</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5.070302872596231</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.0032758724382897916</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1973.0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3.343890067848344E9</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1.26267886E9</v>
+      </c>
+      <c r="E16" t="n">
+        <v>7.167272660978636E11</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2.648250615242219</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.004665498615747878</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1973.0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.1329867382208712E9</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2.24147223E8</v>
+      </c>
+      <c r="E17" t="n">
+        <v>6.562288723574661E10</v>
+      </c>
+      <c r="F17" t="n">
+        <v>5.054654360901322</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.017265115662324925</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1974.0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.5425602893695913E10</v>
+      </c>
+      <c r="D18" t="n">
+        <v>9.00329913E8</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1.7326232722077656E13</v>
+      </c>
+      <c r="F18" t="n">
+        <v>17.13327822497431</v>
+      </c>
+      <c r="G18" t="n">
+        <v>8.903033418245677E-4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1974.0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" t="n">
+        <v>7.860155732934048E9</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1.548739276E9</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2.498308962673289E12</v>
+      </c>
+      <c r="F19" t="n">
+        <v>5.075196228789931</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.0031461904233507495</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1974.0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" t="n">
+        <v>3.5463695602137537E9</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1.292478768E9</v>
+      </c>
+      <c r="E20" t="n">
+        <v>7.555837162728558E11</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2.7438513096052297</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.004693549482123952</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1974.0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.107062711708129E9</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2.29875947E8</v>
+      </c>
+      <c r="E21" t="n">
+        <v>6.831341920201265E10</v>
+      </c>
+      <c r="F21" t="n">
+        <v>4.815913653237192</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.016205640482353616</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1975.0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.4942263154427092E10</v>
+      </c>
+      <c r="D22" t="n">
+        <v>9.08540327E8</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1.739543946968555E13</v>
+      </c>
+      <c r="F22" t="n">
+        <v>16.44645010284402</v>
+      </c>
+      <c r="G22" t="n">
+        <v>8.589758931049987E-4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1975.0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" t="n">
+        <v>8.245154252592774E9</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1.579132162E9</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2.614286697484306E12</v>
+      </c>
+      <c r="F23" t="n">
+        <v>5.221319944589143</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.0031538829542019924</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1975.0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" t="n">
+        <v>3.481477022496393E9</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1.323100393E9</v>
+      </c>
+      <c r="E24" t="n">
+        <v>7.877850090286533E11</v>
+      </c>
+      <c r="F24" t="n">
+        <v>2.6313022359569302</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.0044193237781829445</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1975.0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.0816020891070342E9</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2.35745585E8</v>
+      </c>
+      <c r="E25" t="n">
+        <v>6.782293500456805E10</v>
+      </c>
+      <c r="F25" t="n">
+        <v>4.58800570584189</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.015947438562400544</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1976.0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.5759951675285162E10</v>
+      </c>
+      <c r="D26" t="n">
+        <v>9.16474051E8</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1.825806085218316E13</v>
+      </c>
+      <c r="F26" t="n">
+        <v>17.196287945183908</v>
+      </c>
+      <c r="G26" t="n">
+        <v>8.631777384727419E-4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1976.0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" t="n">
+        <v>8.699580229329458E9</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1.608395612E9</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2.8208037513487637E12</v>
+      </c>
+      <c r="F27" t="n">
+        <v>5.40885598320661</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.0030840785095984664</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1976.0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" t="n">
+        <v>3.6176029213630805E9</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1.354529901E9</v>
+      </c>
+      <c r="E28" t="n">
+        <v>8.341153495532286E11</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2.6707442328828153</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.004337053530187104</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1976.0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1.1090862327063746E9</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2.41768385E8</v>
+      </c>
+      <c r="E29" t="n">
+        <v>6.8244050952884155E10</v>
+      </c>
+      <c r="F29" t="n">
+        <v>4.587391493335138</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.016251764325539382</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1977.0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1.5960721106637548E10</v>
+      </c>
+      <c r="D30" t="n">
+        <v>9.24172356E8</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1.897190112627027E13</v>
+      </c>
+      <c r="F30" t="n">
+        <v>17.270286222062186</v>
+      </c>
+      <c r="G30" t="n">
+        <v>8.412821150821222E-4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1977.0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" t="n">
+        <v>8.98889151517004E9</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1.636636342E9</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2.916343973236462E12</v>
+      </c>
+      <c r="F31" t="n">
+        <v>5.492296171417927</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0030822466751733906</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1977.0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" t="n">
+        <v>3.67721439525982E9</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1.386771092E9</v>
+      </c>
+      <c r="E32" t="n">
+        <v>8.910142882855232E11</v>
+      </c>
+      <c r="F32" t="n">
+        <v>2.651637618113704</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.004126998235163504</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1977.0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1.1383828670220642E9</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2.47945505E8</v>
+      </c>
+      <c r="E33" t="n">
+        <v>6.891808901483372E10</v>
+      </c>
+      <c r="F33" t="n">
+        <v>4.591262370423147</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.01651791109264568</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1978.0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1.6116458399338718E10</v>
+      </c>
+      <c r="D34" t="n">
+        <v>9.31683769E8</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1.9745498725907785E13</v>
+      </c>
+      <c r="F34" t="n">
+        <v>17.298206682978844</v>
+      </c>
+      <c r="G34" t="n">
+        <v>8.162092344718822E-4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1978.0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" t="n">
+        <v>9.54352694139953E9</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1.664275165E9</v>
+      </c>
+      <c r="E35" t="n">
+        <v>3.006201784690766E12</v>
+      </c>
+      <c r="F35" t="n">
+        <v>5.734344381326829</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.0031746128919224324</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1978.0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" t="n">
+        <v>3.8369663486723514E9</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1.4199172E9</v>
+      </c>
+      <c r="E36" t="n">
+        <v>9.273084150549515E11</v>
+      </c>
+      <c r="F36" t="n">
+        <v>2.7022465455537485</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.004137745637135166</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1978.0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1.241035265424788E9</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2.542606E8</v>
+      </c>
+      <c r="E37" t="n">
+        <v>6.851899854545654E10</v>
+      </c>
+      <c r="F37" t="n">
+        <v>4.88095782604457</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.01811227968548703</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>1979.0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1.6383639093811699E10</v>
+      </c>
+      <c r="D38" t="n">
+        <v>9.39083476E8</v>
+      </c>
+      <c r="E38" t="n">
+        <v>2.0577775529174504E13</v>
+      </c>
+      <c r="F38" t="n">
+        <v>17.446413990370008</v>
+      </c>
+      <c r="G38" t="n">
+        <v>7.961812524674256E-4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1979.0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" t="n">
+        <v>9.525802351189203E9</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1.691910162E9</v>
+      </c>
+      <c r="E39" t="n">
+        <v>3.1377155256283057E12</v>
+      </c>
+      <c r="F39" t="n">
+        <v>5.630205766911875</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.0030359037565337375</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>1979.0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" t="n">
+        <v>4.0656617502102146E9</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1.454085479E9</v>
+      </c>
+      <c r="E40" t="n">
+        <v>9.463483123003088E11</v>
+      </c>
+      <c r="F40" t="n">
+        <v>2.796026649689289</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.004296157870591775</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>1979.0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1.2798167969962428E9</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2.6069049E8</v>
+      </c>
+      <c r="E41" t="n">
+        <v>7.032500704070476E10</v>
+      </c>
+      <c r="F41" t="n">
+        <v>4.909334425648756</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.01819860176132614</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1980.0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1.5973781584810993E10</v>
+      </c>
+      <c r="D42" t="n">
+        <v>9.46430492E8</v>
+      </c>
+      <c r="E42" t="n">
+        <v>2.122999956227781E13</v>
+      </c>
+      <c r="F42" t="n">
+        <v>16.877923650848512</v>
+      </c>
+      <c r="G42" t="n">
+        <v>7.524155399981146E-4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1980.0</v>
+      </c>
+      <c r="B43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" t="n">
+        <v>9.555160068746574E9</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1.720011364E9</v>
+      </c>
+      <c r="E43" t="n">
+        <v>3.28359590512295E12</v>
+      </c>
+      <c r="F43" t="n">
+        <v>5.555288917699601</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.0029099683227887304</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1980.0</v>
+      </c>
+      <c r="B44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" t="n">
+        <v>4.0189515795754094E9</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1.489338828E9</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1.0217230380741768E12</v>
+      </c>
+      <c r="F44" t="n">
+        <v>2.698480361901509</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.003933503924067957</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1980.0</v>
+      </c>
+      <c r="B45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1.283213782874774E9</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2.67226681E8</v>
+      </c>
+      <c r="E45" t="n">
+        <v>7.426644864281557E10</v>
+      </c>
+      <c r="F45" t="n">
+        <v>4.801967296352321</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.01727851279177748</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>1981.0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1.5382335199083504E10</v>
+      </c>
+      <c r="D46" t="n">
+        <v>9.53737614E8</v>
+      </c>
+      <c r="E46" t="n">
+        <v>2.1633520315677516E13</v>
+      </c>
+      <c r="F46" t="n">
+        <v>16.128477028990808</v>
+      </c>
+      <c r="G46" t="n">
+        <v>7.110417063253518E-4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>1981.0</v>
+      </c>
+      <c r="B47" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" t="n">
+        <v>9.39616229304309E9</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1.748537642E9</v>
+      </c>
+      <c r="E47" t="n">
+        <v>3.341503594218484E12</v>
+      </c>
+      <c r="F47" t="n">
+        <v>5.373726059620678</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.002811956362788435</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>1981.0</v>
+      </c>
+      <c r="B48" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" t="n">
+        <v>3.953307108413096E9</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1.525696263E9</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1.0521709200936255E12</v>
+      </c>
+      <c r="F48" t="n">
+        <v>2.591149499599381</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.0037572860387182325</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>1981.0</v>
+      </c>
+      <c r="B49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1.2748169952384605E9</v>
+      </c>
+      <c r="D49" t="n">
+        <v>2.73868376E8</v>
+      </c>
+      <c r="E49" t="n">
+        <v>8.478012332619156E10</v>
+      </c>
+      <c r="F49" t="n">
+        <v>4.6548528671249745</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.015036743817104414</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>1982.0</v>
+      </c>
+      <c r="B50" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1.4853053857342329E10</v>
+      </c>
+      <c r="D50" t="n">
+        <v>9.60999479E8</v>
+      </c>
+      <c r="E50" t="n">
+        <v>2.16014329739132E13</v>
+      </c>
+      <c r="F50" t="n">
+        <v>15.455839656435785</v>
+      </c>
+      <c r="G50" t="n">
+        <v>6.875957662290044E-4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>1982.0</v>
+      </c>
+      <c r="B51" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51" t="n">
+        <v>9.679491161041077E9</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1.777441645E9</v>
+      </c>
+      <c r="E51" t="n">
+        <v>3.443719553086283E12</v>
+      </c>
+      <c r="F51" t="n">
+        <v>5.445743430322899</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.0028107663855398025</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>1982.0</v>
+      </c>
+      <c r="B52" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52" t="n">
+        <v>3.960725424674606E9</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1.563070045E9</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1.0827389290946237E12</v>
+      </c>
+      <c r="F52" t="n">
+        <v>2.533939817568832</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.0036580613463178314</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>1982.0</v>
+      </c>
+      <c r="B53" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1.2620628188859515E9</v>
+      </c>
+      <c r="D53" t="n">
+        <v>2.80647814E8</v>
+      </c>
+      <c r="E53" t="n">
+        <v>8.971595630240695E10</v>
+      </c>
+      <c r="F53" t="n">
+        <v>4.496962940484374</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.01406731724100334</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>1983.0</v>
+      </c>
+      <c r="B54" t="s">
+        <v>49</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1.4743557001867811E10</v>
+      </c>
+      <c r="D54" t="n">
+        <v>9.68235756E8</v>
+      </c>
+      <c r="E54" t="n">
+        <v>2.2187015413102324E13</v>
+      </c>
+      <c r="F54" t="n">
+        <v>15.227238728279119</v>
+      </c>
+      <c r="G54" t="n">
+        <v>6.64512857063287E-4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>1983.0</v>
+      </c>
+      <c r="B55" t="s">
+        <v>50</v>
+      </c>
+      <c r="C55" t="n">
+        <v>9.8148155973363E9</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1.807158618E9</v>
+      </c>
+      <c r="E55" t="n">
+        <v>3.452341167765048E12</v>
+      </c>
+      <c r="F55" t="n">
+        <v>5.431075888733249</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.0028429448656403056</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>1983.0</v>
+      </c>
+      <c r="B56" t="s">
+        <v>51</v>
+      </c>
+      <c r="C56" t="n">
+        <v>4.0564778442993507E9</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1.601278796E9</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1.122208959625292E12</v>
+      </c>
+      <c r="F56" t="n">
+        <v>2.5332739398238746</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.003614725946987464</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>1983.0</v>
+      </c>
+      <c r="B57" t="s">
+        <v>52</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1.2624719009147635E9</v>
+      </c>
+      <c r="D57" t="n">
+        <v>2.87631476E8</v>
+      </c>
+      <c r="E57" t="n">
+        <v>9.0498220750613E10</v>
+      </c>
+      <c r="F57" t="n">
+        <v>4.389199396643097</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.013950240020671476</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>1984.0</v>
+      </c>
+      <c r="B58" t="s">
+        <v>49</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1.5023406025294094E10</v>
+      </c>
+      <c r="D58" t="n">
+        <v>9.75465566E8</v>
+      </c>
+      <c r="E58" t="n">
+        <v>2.3189019491078277E13</v>
+      </c>
+      <c r="F58" t="n">
+        <v>15.40126740393222</v>
+      </c>
+      <c r="G58" t="n">
+        <v>6.478672386762272E-4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>1984.0</v>
+      </c>
+      <c r="B59" t="s">
+        <v>50</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1.00672684476782E10</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1.8382180340000002E9</v>
+      </c>
+      <c r="E59" t="n">
+        <v>3.622470237428976E12</v>
+      </c>
+      <c r="F59" t="n">
+        <v>5.4766454585213795</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.0027791169527519363</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>1984.0</v>
+      </c>
+      <c r="B60" t="s">
+        <v>51</v>
+      </c>
+      <c r="C60" t="n">
+        <v>4.159396941462625E9</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1.640076158E9</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1.1803182276184307E12</v>
+      </c>
+      <c r="F60" t="n">
+        <v>2.5360998763221</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.0035239623045178127</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>1984.0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>52</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1.2772003919519985E9</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2.94906814E8</v>
+      </c>
+      <c r="E61" t="n">
+        <v>9.191981096378828E10</v>
+      </c>
+      <c r="F61" t="n">
+        <v>4.330860906971103</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.013894723874651464</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>1985.0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>49</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1.5041950020767736E10</v>
+      </c>
+      <c r="D62" t="n">
+        <v>9.82704325E8</v>
+      </c>
+      <c r="E62" t="n">
+        <v>2.400042072667646E13</v>
+      </c>
+      <c r="F62" t="n">
+        <v>15.30668954852492</v>
+      </c>
+      <c r="G62" t="n">
+        <v>6.267369306592452E-4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>1985.0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>50</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1.0219793597482264E10</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1.870895128E9</v>
+      </c>
+      <c r="E63" t="n">
+        <v>3.811921582430623E12</v>
+      </c>
+      <c r="F63" t="n">
+        <v>5.462515479639575</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.002681008351427246</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>1985.0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>51</v>
+      </c>
+      <c r="C64" t="n">
+        <v>4.2422713346278334E9</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1.679260998E9</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1.2259770253961907E12</v>
+      </c>
+      <c r="F64" t="n">
+        <v>2.526272770986987</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.0034603187879943243</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>1985.0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>52</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1.316812327863341E9</v>
+      </c>
+      <c r="D65" t="n">
+        <v>3.02542719E8</v>
+      </c>
+      <c r="E65" t="n">
+        <v>1.0054277162138196E11</v>
+      </c>
+      <c r="F65" t="n">
+        <v>4.3524839474432735</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.013097036282450172</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>1986.0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>49</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1.500572817212313E10</v>
+      </c>
+      <c r="D66" t="n">
+        <v>9.8996195E8</v>
+      </c>
+      <c r="E66" t="n">
+        <v>2.478128783379486E13</v>
+      </c>
+      <c r="F66" t="n">
+        <v>15.157883767273207</v>
+      </c>
+      <c r="G66" t="n">
+        <v>6.055265679800324E-4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>1986.0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>50</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1.0474966179804617E10</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1.905459028E9</v>
+      </c>
+      <c r="E67" t="n">
+        <v>3.9625720781316333E12</v>
+      </c>
+      <c r="F67" t="n">
+        <v>5.49734527265029</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.0026434765029545153</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>1986.0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>51</v>
+      </c>
+      <c r="C68" t="n">
+        <v>4.380325278032491E9</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1.71875741E9</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1.2660640709635073E12</v>
+      </c>
+      <c r="F68" t="n">
+        <v>2.5485419015778907</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.003459797476678215</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>1986.0</v>
+      </c>
+      <c r="B69" t="s">
+        <v>52</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1.3654709792979672E9</v>
+      </c>
+      <c r="D69" t="n">
+        <v>3.10546314E8</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1.0699195558870454E11</v>
+      </c>
+      <c r="F69" t="n">
+        <v>4.396996253827592</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.0127623705145373</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>1987.0</v>
+      </c>
+      <c r="B70" t="s">
+        <v>49</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1.5242471469438889E10</v>
+      </c>
+      <c r="D70" t="n">
+        <v>9.97243393E8</v>
+      </c>
+      <c r="E70" t="n">
+        <v>2.5631634363121844E13</v>
+      </c>
+      <c r="F70" t="n">
+        <v>15.28460511890189</v>
+      </c>
+      <c r="G70" t="n">
+        <v>5.946741925817019E-4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>1987.0</v>
+      </c>
+      <c r="B71" t="s">
+        <v>50</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1.078650505513664E10</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1.941530143E9</v>
+      </c>
+      <c r="E71" t="n">
+        <v>4.1710689174946094E12</v>
+      </c>
+      <c r="F71" t="n">
+        <v>5.55567220731872</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.002586028969671317</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>1987.0</v>
+      </c>
+      <c r="B72" t="s">
+        <v>51</v>
+      </c>
+      <c r="C72" t="n">
+        <v>4.46575156837561E9</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1.758536353E9</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1.523116797557256E12</v>
+      </c>
+      <c r="F72" t="n">
+        <v>2.539470714243239</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.0029319823506232037</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>1987.0</v>
+      </c>
+      <c r="B73" t="s">
+        <v>52</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1.4028094440874233E9</v>
+      </c>
+      <c r="D73" t="n">
+        <v>3.1891711E8</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1.1000641425522423E11</v>
+      </c>
+      <c r="F73" t="n">
+        <v>4.398664731683487</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.012752069536897968</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>1988.0</v>
+      </c>
+      <c r="B74" t="s">
+        <v>49</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1.5691165600082129E10</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1.004550879E9</v>
+      </c>
+      <c r="E74" t="n">
+        <v>2.6849963874412875E13</v>
+      </c>
+      <c r="F74" t="n">
+        <v>15.620080503739352</v>
+      </c>
+      <c r="G74" t="n">
+        <v>5.844017397369867E-4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>1988.0</v>
+      </c>
+      <c r="B75" t="s">
+        <v>50</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1.1212638161258097E10</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1.977925429E9</v>
+      </c>
+      <c r="E75" t="n">
+        <v>4.318784245628741E12</v>
+      </c>
+      <c r="F75" t="n">
+        <v>5.668888218362704</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.0025962487412069662</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>1988.0</v>
+      </c>
+      <c r="B76" t="s">
+        <v>51</v>
+      </c>
+      <c r="C76" t="n">
+        <v>4.624517177696115E9</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1.798500096E9</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1.614495140543884E12</v>
+      </c>
+      <c r="F76" t="n">
+        <v>2.571318838392831</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.002864373550321265</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>1988.0</v>
+      </c>
+      <c r="B77" t="s">
+        <v>52</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1.4450132668588085E9</v>
+      </c>
+      <c r="D77" t="n">
+        <v>3.27703142E8</v>
+      </c>
+      <c r="E77" t="n">
+        <v>1.256181300920185E11</v>
+      </c>
+      <c r="F77" t="n">
+        <v>4.409519109398128</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.01150322223233461</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>1989.0</v>
+      </c>
+      <c r="B78" t="s">
+        <v>49</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1.5881587266251427E10</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1.011883061E9</v>
+      </c>
+      <c r="E78" t="n">
+        <v>2.7865174893608203E13</v>
+      </c>
+      <c r="F78" t="n">
+        <v>15.695081653562166</v>
+      </c>
+      <c r="G78" t="n">
+        <v>5.699439291836059E-4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>1989.0</v>
+      </c>
+      <c r="B79" t="s">
+        <v>50</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1.1435368889227829E10</v>
+      </c>
+      <c r="D79" t="n">
+        <v>2.013029487E9</v>
+      </c>
+      <c r="E79" t="n">
+        <v>5.884954515842843E12</v>
+      </c>
+      <c r="F79" t="n">
+        <v>5.680676295641281</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.0019431533172334225</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>1989.0</v>
+      </c>
+      <c r="B80" t="s">
+        <v>51</v>
+      </c>
+      <c r="C80" t="n">
+        <v>4.737978623555915E9</v>
+      </c>
+      <c r="D80" t="n">
+        <v>1.838552736E9</v>
+      </c>
+      <c r="E80" t="n">
+        <v>1.6966411024258457E12</v>
+      </c>
+      <c r="F80" t="n">
+        <v>2.57701535059798</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.0027925638585447362</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>1989.0</v>
+      </c>
+      <c r="B81" t="s">
+        <v>52</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1.4611162076660435E9</v>
+      </c>
+      <c r="D81" t="n">
+        <v>3.36958711E8</v>
+      </c>
+      <c r="E81" t="n">
+        <v>1.2700311382291965E11</v>
+      </c>
+      <c r="F81" t="n">
+        <v>4.336187669195006</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.011504569956475846</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>1990.0</v>
+      </c>
+      <c r="B82" t="s">
+        <v>49</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1.5668119283625439E10</v>
+      </c>
+      <c r="D82" t="n">
+        <v>1.019237246E9</v>
+      </c>
+      <c r="E82" t="n">
+        <v>2.9098952833105035E13</v>
+      </c>
+      <c r="F82" t="n">
+        <v>15.372396706571532</v>
+      </c>
+      <c r="G82" t="n">
+        <v>5.38442719003973E-4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>1990.0</v>
+      </c>
+      <c r="B83" t="s">
+        <v>50</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1.1692149787292852E10</v>
+      </c>
+      <c r="D83" t="n">
+        <v>2.045667228E9</v>
+      </c>
+      <c r="E83" t="n">
+        <v>6.2838575846386455E12</v>
+      </c>
+      <c r="F83" t="n">
+        <v>5.715567824158765</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.001860664349853373</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>1990.0</v>
+      </c>
+      <c r="B84" t="s">
+        <v>51</v>
+      </c>
+      <c r="C84" t="n">
+        <v>4.744584486810187E9</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1.878617472E9</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1.7587809640850706E12</v>
+      </c>
+      <c r="F84" t="n">
+        <v>2.5255724262795463</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.002697655128009844</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>1990.0</v>
+      </c>
+      <c r="B85" t="s">
+        <v>52</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1.4739394031064978E9</v>
+      </c>
+      <c r="D85" t="n">
+        <v>3.46710976E8</v>
+      </c>
+      <c r="E85" t="n">
+        <v>1.3912539553590683E11</v>
+      </c>
+      <c r="F85" t="n">
+        <v>4.2512049088013235</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.010594323181824048</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="B86" t="s">
+        <v>49</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1.5681720700300722E10</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1.026625063E9</v>
+      </c>
+      <c r="E86" t="n">
+        <v>2.964574943343659E13</v>
+      </c>
+      <c r="F86" t="n">
+        <v>15.275022270034647</v>
+      </c>
+      <c r="G86" t="n">
+        <v>5.289702908509966E-4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="B87" t="s">
+        <v>50</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1.1727191029795816E10</v>
+      </c>
+      <c r="D87" t="n">
+        <v>2.075420636E9</v>
+      </c>
+      <c r="E87" t="n">
+        <v>6.335976317339185E12</v>
+      </c>
+      <c r="F87" t="n">
+        <v>5.6505128774270394</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.0018508893408744134</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="B88" t="s">
+        <v>51</v>
+      </c>
+      <c r="C88" t="n">
+        <v>4.791083233867748E9</v>
+      </c>
+      <c r="D88" t="n">
+        <v>1.918634041E9</v>
+      </c>
+      <c r="E88" t="n">
+        <v>1.7790652442948018E12</v>
+      </c>
+      <c r="F88" t="n">
+        <v>2.497132403306373</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.0026930340240370844</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="B89" t="s">
+        <v>52</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1.4752060232475908E9</v>
+      </c>
+      <c r="D89" t="n">
+        <v>3.57006534E8</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1.3976284217005536E11</v>
+      </c>
+      <c r="F89" t="n">
+        <v>4.132154128158312</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.010555065998533753</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>1992.0</v>
+      </c>
+      <c r="B90" t="s">
+        <v>49</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1.5675641906377398E10</v>
+      </c>
+      <c r="D90" t="n">
+        <v>1.034045384E9</v>
+      </c>
+      <c r="E90" t="n">
+        <v>3.0360524997937215E13</v>
+      </c>
+      <c r="F90" t="n">
+        <v>15.159529890012447</v>
+      </c>
+      <c r="G90" t="n">
+        <v>5.163165626234213E-4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>1992.0</v>
+      </c>
+      <c r="B91" t="s">
+        <v>50</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1.1678644559726154E10</v>
+      </c>
+      <c r="D91" t="n">
+        <v>2.102570476E9</v>
+      </c>
+      <c r="E91" t="n">
+        <v>6.337862688157078E12</v>
+      </c>
+      <c r="F91" t="n">
+        <v>5.554460453541608</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.0018426786969602314</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>1992.0</v>
+      </c>
+      <c r="B92" t="s">
+        <v>51</v>
+      </c>
+      <c r="C92" t="n">
+        <v>4.782791791169894E9</v>
+      </c>
+      <c r="D92" t="n">
+        <v>1.958573418E9</v>
+      </c>
+      <c r="E92" t="n">
+        <v>1.8201535749854956E12</v>
+      </c>
+      <c r="F92" t="n">
+        <v>2.4419772816348386</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.002627685848546053</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>1992.0</v>
+      </c>
+      <c r="B93" t="s">
+        <v>52</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1.4954488455906434E9</v>
+      </c>
+      <c r="D93" t="n">
+        <v>3.67809439E8</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1.3567979750340443E11</v>
+      </c>
+      <c r="F93" t="n">
+        <v>4.065825090450285</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.01102189768195313</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>1993.0</v>
+      </c>
+      <c r="B94" t="s">
+        <v>49</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1.5781390786542625E10</v>
+      </c>
+      <c r="D94" t="n">
+        <v>1.041466969E9</v>
+      </c>
+      <c r="E94" t="n">
+        <v>3.0728442687605746E13</v>
+      </c>
+      <c r="F94" t="n">
+        <v>15.153040140769578</v>
+      </c>
+      <c r="G94" t="n">
+        <v>5.135760034109382E-4</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>1993.0</v>
+      </c>
+      <c r="B95" t="s">
+        <v>50</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1.1678528041447975E10</v>
+      </c>
+      <c r="D95" t="n">
+        <v>2.127509702E9</v>
+      </c>
+      <c r="E95" t="n">
+        <v>6.53116654296653E12</v>
+      </c>
+      <c r="F95" t="n">
+        <v>5.48929484573884</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.001788122836038331</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>1993.0</v>
+      </c>
+      <c r="B96" t="s">
+        <v>51</v>
+      </c>
+      <c r="C96" t="n">
+        <v>4.786202789895604E9</v>
+      </c>
+      <c r="D96" t="n">
+        <v>1.998435542E9</v>
+      </c>
+      <c r="E96" t="n">
+        <v>1.8593050674540703E12</v>
+      </c>
+      <c r="F96" t="n">
+        <v>2.394974813701349</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.002574189074012103</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>1993.0</v>
+      </c>
+      <c r="B97" t="s">
+        <v>52</v>
+      </c>
+      <c r="C97" t="n">
+        <v>1.479090276003966E9</v>
+      </c>
+      <c r="D97" t="n">
+        <v>3.78963202E8</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1.3520720047066154E11</v>
+      </c>
+      <c r="F97" t="n">
+        <v>3.9029918160865815</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.010939434222846085</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>1994.0</v>
+      </c>
+      <c r="B98" t="s">
+        <v>49</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1.6060133091450706E10</v>
+      </c>
+      <c r="D98" t="n">
+        <v>1.048847302E9</v>
+      </c>
+      <c r="E98" t="n">
+        <v>3.1709385282339953E13</v>
+      </c>
+      <c r="F98" t="n">
+        <v>15.312174671018704</v>
+      </c>
+      <c r="G98" t="n">
+        <v>5.064788531361138E-4</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>1994.0</v>
+      </c>
+      <c r="B99" t="s">
+        <v>50</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1.1760461443724897E10</v>
+      </c>
+      <c r="D99" t="n">
+        <v>2.15092739E9</v>
+      </c>
+      <c r="E99" t="n">
+        <v>6.674847780260886E12</v>
+      </c>
+      <c r="F99" t="n">
+        <v>5.467623639180538</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.001761907062285882</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>1994.0</v>
+      </c>
+      <c r="B100" t="s">
+        <v>51</v>
+      </c>
+      <c r="C100" t="n">
+        <v>4.74910582084464E9</v>
+      </c>
+      <c r="D100" t="n">
+        <v>2.038242866E9</v>
+      </c>
+      <c r="E100" t="n">
+        <v>1.9132544720991323E12</v>
+      </c>
+      <c r="F100" t="n">
+        <v>2.3299999720664495</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.0024822133647669697</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>1994.0</v>
+      </c>
+      <c r="B101" t="s">
+        <v>52</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1.5071809260657198E9</v>
+      </c>
+      <c r="D101" t="n">
+        <v>3.90252965E8</v>
+      </c>
+      <c r="E101" t="n">
+        <v>1.3723642717003716E11</v>
+      </c>
+      <c r="F101" t="n">
+        <v>3.862061435114836</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.010982367853385671</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>1995.0</v>
+      </c>
+      <c r="B102" t="s">
+        <v>49</v>
+      </c>
+      <c r="C102" t="n">
+        <v>1.624524064792363E10</v>
+      </c>
+      <c r="D102" t="n">
+        <v>1.056159448E9</v>
+      </c>
+      <c r="E102" t="n">
+        <v>3.2712503643073637E13</v>
+      </c>
+      <c r="F102" t="n">
+        <v>15.381428134441713</v>
+      </c>
+      <c r="G102" t="n">
+        <v>4.966064604891013E-4</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>1995.0</v>
+      </c>
+      <c r="B103" t="s">
+        <v>50</v>
+      </c>
+      <c r="C103" t="n">
+        <v>1.2191032432944588E10</v>
+      </c>
+      <c r="D103" t="n">
+        <v>2.173360209E9</v>
+      </c>
+      <c r="E103" t="n">
+        <v>6.906079649489138E12</v>
+      </c>
+      <c r="F103" t="n">
+        <v>5.609301386148911</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.001765260908024192</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>1995.0</v>
+      </c>
+      <c r="B104" t="s">
+        <v>51</v>
+      </c>
+      <c r="C104" t="n">
+        <v>4.87388765488462E9</v>
+      </c>
+      <c r="D104" t="n">
+        <v>2.078013715E9</v>
+      </c>
+      <c r="E104" t="n">
+        <v>2.0092727581511633E12</v>
+      </c>
+      <c r="F104" t="n">
+        <v>2.3454549985415376</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.002425697374889678</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>1995.0</v>
+      </c>
+      <c r="B105" t="s">
+        <v>52</v>
+      </c>
+      <c r="C105" t="n">
+        <v>1.5414758639623122E9</v>
+      </c>
+      <c r="D105" t="n">
+        <v>4.01530588E8</v>
+      </c>
+      <c r="E105" t="n">
+        <v>1.4228412335149338E11</v>
+      </c>
+      <c r="F105" t="n">
+        <v>3.838999842179675</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.010833786846015896</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>1996.0</v>
+      </c>
+      <c r="B106" t="s">
+        <v>49</v>
+      </c>
+      <c r="C106" t="n">
+        <v>1.6653898246358831E10</v>
+      </c>
+      <c r="D106" t="n">
+        <v>1.06340087E9</v>
+      </c>
+      <c r="E106" t="n">
+        <v>3.369306505235975E13</v>
+      </c>
+      <c r="F106" t="n">
+        <v>15.660978579375087</v>
+      </c>
+      <c r="G106" t="n">
+        <v>4.942826727244409E-4</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>1996.0</v>
+      </c>
+      <c r="B107" t="s">
+        <v>50</v>
+      </c>
+      <c r="C107" t="n">
+        <v>1.2222380574072792E10</v>
+      </c>
+      <c r="D107" t="n">
+        <v>2.194886223E9</v>
+      </c>
+      <c r="E107" t="n">
+        <v>7.213738501276068E12</v>
+      </c>
+      <c r="F107" t="n">
+        <v>5.568571366477064</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.0016943198830829153</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>1996.0</v>
+      </c>
+      <c r="B108" t="s">
+        <v>51</v>
+      </c>
+      <c r="C108" t="n">
+        <v>4.942302852667976E9</v>
+      </c>
+      <c r="D108" t="n">
+        <v>2.117733112E9</v>
+      </c>
+      <c r="E108" t="n">
+        <v>2.129772683737059E12</v>
+      </c>
+      <c r="F108" t="n">
+        <v>2.333770400369495</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0.0023205776327245593</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>1996.0</v>
+      </c>
+      <c r="B109" t="s">
+        <v>52</v>
+      </c>
+      <c r="C109" t="n">
+        <v>1.5744952672425525E9</v>
+      </c>
+      <c r="D109" t="n">
+        <v>4.12733142E8</v>
+      </c>
+      <c r="E109" t="n">
+        <v>1.5594377201955557E11</v>
+      </c>
+      <c r="F109" t="n">
+        <v>3.814802125201161</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.010096557540272328</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>1997.0</v>
+      </c>
+      <c r="B110" t="s">
+        <v>49</v>
+      </c>
+      <c r="C110" t="n">
+        <v>1.6834081902016953E10</v>
+      </c>
+      <c r="D110" t="n">
+        <v>1.070594053E9</v>
+      </c>
+      <c r="E110" t="n">
+        <v>3.4837028971378664E13</v>
+      </c>
+      <c r="F110" t="n">
+        <v>15.72405698952351</v>
+      </c>
+      <c r="G110" t="n">
+        <v>4.8322381095837605E-4</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>1997.0</v>
+      </c>
+      <c r="B111" t="s">
+        <v>50</v>
+      </c>
+      <c r="C111" t="n">
+        <v>1.220634095546096E10</v>
+      </c>
+      <c r="D111" t="n">
+        <v>2.215409541E9</v>
+      </c>
+      <c r="E111" t="n">
+        <v>7.57348320424523E12</v>
+      </c>
+      <c r="F111" t="n">
+        <v>5.509744690343446</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.0016117208721898048</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>1997.0</v>
+      </c>
+      <c r="B112" t="s">
+        <v>51</v>
+      </c>
+      <c r="C112" t="n">
+        <v>4.996455901128111E9</v>
+      </c>
+      <c r="D112" t="n">
+        <v>2.157390647E9</v>
+      </c>
+      <c r="E112" t="n">
+        <v>2.212259391562855E12</v>
+      </c>
+      <c r="F112" t="n">
+        <v>2.315971800506332</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.0022585307673158323</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>1997.0</v>
+      </c>
+      <c r="B113" t="s">
+        <v>52</v>
+      </c>
+      <c r="C113" t="n">
+        <v>1.6145876064283333E9</v>
+      </c>
+      <c r="D113" t="n">
+        <v>4.23922866E8</v>
+      </c>
+      <c r="E113" t="n">
+        <v>1.614935224137782E11</v>
+      </c>
+      <c r="F113" t="n">
+        <v>3.808682512606747</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.009997847482027434</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>1998.0</v>
+      </c>
+      <c r="B114" t="s">
+        <v>49</v>
+      </c>
+      <c r="C114" t="n">
+        <v>1.6770976677866104E10</v>
+      </c>
+      <c r="D114" t="n">
+        <v>1.077770287E9</v>
+      </c>
+      <c r="E114" t="n">
+        <v>3.577961687054238E13</v>
+      </c>
+      <c r="F114" t="n">
+        <v>15.560808161216364</v>
+      </c>
+      <c r="G114" t="n">
+        <v>4.6872991230025637E-4</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>1998.0</v>
+      </c>
+      <c r="B115" t="s">
+        <v>50</v>
+      </c>
+      <c r="C115" t="n">
+        <v>1.2208540305909178E10</v>
+      </c>
+      <c r="D115" t="n">
+        <v>2.235109851E9</v>
+      </c>
+      <c r="E115" t="n">
+        <v>7.746385579490114E12</v>
+      </c>
+      <c r="F115" t="n">
+        <v>5.462165674070566</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.0015760305474895782</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>1998.0</v>
+      </c>
+      <c r="B116" t="s">
+        <v>51</v>
+      </c>
+      <c r="C116" t="n">
+        <v>4.987052620637956E9</v>
+      </c>
+      <c r="D116" t="n">
+        <v>2.19701932E9</v>
+      </c>
+      <c r="E116" t="n">
+        <v>2.219556377258216E12</v>
+      </c>
+      <c r="F116" t="n">
+        <v>2.2699175083439664</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.002246869091380497</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>1998.0</v>
+      </c>
+      <c r="B117" t="s">
+        <v>52</v>
+      </c>
+      <c r="C117" t="n">
+        <v>1.6496177841424892E9</v>
+      </c>
+      <c r="D117" t="n">
+        <v>4.35231729E8</v>
+      </c>
+      <c r="E117" t="n">
+        <v>1.6701834928307645E11</v>
+      </c>
+      <c r="F117" t="n">
+        <v>3.7902057093417683</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.009876865573294471</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>1999.0</v>
+      </c>
+      <c r="B118" t="s">
+        <v>49</v>
+      </c>
+      <c r="C118" t="n">
+        <v>1.689766083964992E10</v>
+      </c>
+      <c r="D118" t="n">
+        <v>1.08497328E9</v>
+      </c>
+      <c r="E118" t="n">
+        <v>3.69226987966357E13</v>
+      </c>
+      <c r="F118" t="n">
+        <v>15.574264501380089</v>
+      </c>
+      <c r="G118" t="n">
+        <v>4.5764966782952467E-4</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>1999.0</v>
+      </c>
+      <c r="B119" t="s">
+        <v>50</v>
+      </c>
+      <c r="C119" t="n">
+        <v>1.2205826794427383E10</v>
+      </c>
+      <c r="D119" t="n">
+        <v>2.254178512E9</v>
+      </c>
+      <c r="E119" t="n">
+        <v>8.033999855413376E12</v>
+      </c>
+      <c r="F119" t="n">
+        <v>5.414756076082844</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.0015192714730014583</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>1999.0</v>
+      </c>
+      <c r="B120" t="s">
+        <v>51</v>
+      </c>
+      <c r="C120" t="n">
+        <v>5.100017900670104E9</v>
+      </c>
+      <c r="D120" t="n">
+        <v>2.236665224E9</v>
+      </c>
+      <c r="E120" t="n">
+        <v>2.318830866860591E12</v>
+      </c>
+      <c r="F120" t="n">
+        <v>2.280188311574564</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.0021993919321830037</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>1999.0</v>
+      </c>
+      <c r="B121" t="s">
+        <v>52</v>
+      </c>
+      <c r="C121" t="n">
+        <v>1.6828863816219418E9</v>
+      </c>
+      <c r="D121" t="n">
+        <v>4.4685514E8</v>
+      </c>
+      <c r="E121" t="n">
+        <v>1.7233539289520532E11</v>
+      </c>
+      <c r="F121" t="n">
+        <v>3.766066966628026</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0.009765181448510005</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="B122" t="s">
+        <v>49</v>
+      </c>
+      <c r="C122" t="n">
+        <v>1.7286253731671505E10</v>
+      </c>
+      <c r="D122" t="n">
+        <v>1.092241842E9</v>
+      </c>
+      <c r="E122" t="n">
+        <v>3.843006932334053E13</v>
+      </c>
+      <c r="F122" t="n">
+        <v>15.826397659348693</v>
+      </c>
+      <c r="G122" t="n">
+        <v>4.4981063099911416E-4</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="B123" t="s">
+        <v>50</v>
+      </c>
+      <c r="C123" t="n">
+        <v>1.2625144915354713E10</v>
+      </c>
+      <c r="D123" t="n">
+        <v>2.272784477E9</v>
+      </c>
+      <c r="E123" t="n">
+        <v>8.533673907698987E12</v>
+      </c>
+      <c r="F123" t="n">
+        <v>5.554923945986944</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0.0014794501233477465</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="B124" t="s">
+        <v>51</v>
+      </c>
+      <c r="C124" t="n">
+        <v>5.149887770429323E9</v>
+      </c>
+      <c r="D124" t="n">
+        <v>2.276363383E9</v>
+      </c>
+      <c r="E124" t="n">
+        <v>2.42228710815823E12</v>
+      </c>
+      <c r="F124" t="n">
+        <v>2.26233114136739</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0.0021260435037137307</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="B125" t="s">
+        <v>52</v>
+      </c>
+      <c r="C125" t="n">
+        <v>1.7265692519821336E9</v>
+      </c>
+      <c r="D125" t="n">
+        <v>4.58936946E8</v>
+      </c>
+      <c r="E125" t="n">
+        <v>1.7636283415576886E11</v>
+      </c>
+      <c r="F125" t="n">
+        <v>3.7621055943099724</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0.009789870185785157</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>2001.0</v>
+      </c>
+      <c r="B126" t="s">
+        <v>49</v>
+      </c>
+      <c r="C126" t="n">
+        <v>1.728591868867894E10</v>
+      </c>
+      <c r="D126" t="n">
+        <v>1.09954521E9</v>
+      </c>
+      <c r="E126" t="n">
+        <v>3.898515180963447E13</v>
+      </c>
+      <c r="F126" t="n">
+        <v>15.720971299287402</v>
+      </c>
+      <c r="G126" t="n">
+        <v>4.4339749587449446E-4</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>2001.0</v>
+      </c>
+      <c r="B127" t="s">
+        <v>50</v>
+      </c>
+      <c r="C127" t="n">
+        <v>1.2890226418694565E10</v>
+      </c>
+      <c r="D127" t="n">
+        <v>2.291052565E9</v>
+      </c>
+      <c r="E127" t="n">
+        <v>8.822503470006291E12</v>
+      </c>
+      <c r="F127" t="n">
+        <v>5.626333771479645</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0.0014610622101217914</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>2001.0</v>
+      </c>
+      <c r="B128" t="s">
+        <v>51</v>
+      </c>
+      <c r="C128" t="n">
+        <v>5.245226022008838E9</v>
+      </c>
+      <c r="D128" t="n">
+        <v>2.316137254E9</v>
+      </c>
+      <c r="E128" t="n">
+        <v>2.527460344850153E12</v>
+      </c>
+      <c r="F128" t="n">
+        <v>2.2646438646717773</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0.002075295081363508</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>2001.0</v>
+      </c>
+      <c r="B129" t="s">
+        <v>52</v>
+      </c>
+      <c r="C129" t="n">
+        <v>1.714524787633637E9</v>
+      </c>
+      <c r="D129" t="n">
+        <v>4.71509799E8</v>
+      </c>
+      <c r="E129" t="n">
+        <v>1.8443236974887378E11</v>
+      </c>
+      <c r="F129" t="n">
+        <v>3.636244233460007</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0.009296224897875372</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>2002.0</v>
+      </c>
+      <c r="B130" t="s">
+        <v>49</v>
+      </c>
+      <c r="C130" t="n">
+        <v>1.72639400756552E10</v>
+      </c>
+      <c r="D130" t="n">
+        <v>1.106888187E9</v>
+      </c>
+      <c r="E130" t="n">
+        <v>3.9552682158226164E13</v>
+      </c>
+      <c r="F130" t="n">
+        <v>15.596823851238012</v>
+      </c>
+      <c r="G130" t="n">
+        <v>4.3647963004361383E-4</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>2002.0</v>
+      </c>
+      <c r="B131" t="s">
+        <v>50</v>
+      </c>
+      <c r="C131" t="n">
+        <v>1.338179021800493E10</v>
+      </c>
+      <c r="D131" t="n">
+        <v>2.309082229E9</v>
+      </c>
+      <c r="E131" t="n">
+        <v>9.239172502683732E12</v>
+      </c>
+      <c r="F131" t="n">
+        <v>5.795285265263254</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0.0014483754052776782</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>2002.0</v>
+      </c>
+      <c r="B132" t="s">
+        <v>51</v>
+      </c>
+      <c r="C132" t="n">
+        <v>5.301932916256889E9</v>
+      </c>
+      <c r="D132" t="n">
+        <v>2.355984937E9</v>
+      </c>
+      <c r="E132" t="n">
+        <v>2.6284013884466367E12</v>
+      </c>
+      <c r="F132" t="n">
+        <v>2.2504103625586507</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0.0020171701854830807</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>2002.0</v>
+      </c>
+      <c r="B133" t="s">
+        <v>52</v>
+      </c>
+      <c r="C133" t="n">
+        <v>1.760002212338398E9</v>
+      </c>
+      <c r="D133" t="n">
+        <v>4.84533938E8</v>
+      </c>
+      <c r="E133" t="n">
+        <v>1.9699320920410498E11</v>
+      </c>
+      <c r="F133" t="n">
+        <v>3.632361067633611</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0.008934329358099126</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>2003.0</v>
+      </c>
+      <c r="B134" t="s">
+        <v>49</v>
+      </c>
+      <c r="C134" t="n">
+        <v>1.7505579923757214E10</v>
+      </c>
+      <c r="D134" t="n">
+        <v>1.114383995E9</v>
+      </c>
+      <c r="E134" t="n">
+        <v>4.0399211034897516E13</v>
+      </c>
+      <c r="F134" t="n">
+        <v>15.70875030716608</v>
+      </c>
+      <c r="G134" t="n">
+        <v>4.333148958932787E-4</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>2003.0</v>
+      </c>
+      <c r="B135" t="s">
+        <v>50</v>
+      </c>
+      <c r="C135" t="n">
+        <v>1.439254942456002E10</v>
+      </c>
+      <c r="D135" t="n">
+        <v>2.326979896E9</v>
+      </c>
+      <c r="E135" t="n">
+        <v>9.712702209307148E12</v>
+      </c>
+      <c r="F135" t="n">
+        <v>6.185076823955518</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0.0014818275197162362</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>2003.0</v>
+      </c>
+      <c r="B136" t="s">
+        <v>51</v>
+      </c>
+      <c r="C136" t="n">
+        <v>5.508170609241866E9</v>
+      </c>
+      <c r="D136" t="n">
+        <v>2.395887128E9</v>
+      </c>
+      <c r="E136" t="n">
+        <v>2.7963444040795264E12</v>
+      </c>
+      <c r="F136" t="n">
+        <v>2.29901089449063</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0.0019697754687176996</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>2003.0</v>
+      </c>
+      <c r="B137" t="s">
+        <v>52</v>
+      </c>
+      <c r="C137" t="n">
+        <v>1.8090472510597959E9</v>
+      </c>
+      <c r="D137" t="n">
+        <v>4.97993231E8</v>
+      </c>
+      <c r="E137" t="n">
+        <v>2.0333391685712024E11</v>
+      </c>
+      <c r="F137" t="n">
+        <v>3.6326743787804534</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0.008896928161429098</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>2004.0</v>
+      </c>
+      <c r="B138" t="s">
+        <v>49</v>
+      </c>
+      <c r="C138" t="n">
+        <v>1.7740625517555473E10</v>
+      </c>
+      <c r="D138" t="n">
+        <v>1.122180389E9</v>
+      </c>
+      <c r="E138" t="n">
+        <v>4.173156553564138E13</v>
+      </c>
+      <c r="F138" t="n">
+        <v>15.809067500604373</v>
+      </c>
+      <c r="G138" t="n">
+        <v>4.2511286815741104E-4</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>2004.0</v>
+      </c>
+      <c r="B139" t="s">
+        <v>50</v>
+      </c>
+      <c r="C139" t="n">
+        <v>1.5557529811785934E10</v>
+      </c>
+      <c r="D139" t="n">
+        <v>2.344840804E9</v>
+      </c>
+      <c r="E139" t="n">
+        <v>1.048266456141962E13</v>
+      </c>
+      <c r="F139" t="n">
+        <v>6.634791490000843</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0.0014841197789580943</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>2004.0</v>
+      </c>
+      <c r="B140" t="s">
+        <v>51</v>
+      </c>
+      <c r="C140" t="n">
+        <v>5.682423816073639E9</v>
+      </c>
+      <c r="D140" t="n">
+        <v>2.435811705E9</v>
+      </c>
+      <c r="E140" t="n">
+        <v>3.0369903579164165E12</v>
+      </c>
+      <c r="F140" t="n">
+        <v>2.3328666187165887</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0.0018710707464913293</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>2004.0</v>
+      </c>
+      <c r="B141" t="s">
+        <v>52</v>
+      </c>
+      <c r="C141" t="n">
+        <v>1.917798326596289E9</v>
+      </c>
+      <c r="D141" t="n">
+        <v>5.11849539E8</v>
+      </c>
+      <c r="E141" t="n">
+        <v>2.1455333741353616E11</v>
+      </c>
+      <c r="F141" t="n">
+        <v>3.746800925801535</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0.008938562083049169</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>2005.0</v>
+      </c>
+      <c r="B142" t="s">
+        <v>49</v>
+      </c>
+      <c r="C142" t="n">
+        <v>1.780173934086816E10</v>
+      </c>
+      <c r="D142" t="n">
+        <v>1.130360711E9</v>
+      </c>
+      <c r="E142" t="n">
+        <v>4.288735782748284E13</v>
+      </c>
+      <c r="F142" t="n">
+        <v>15.748724427195842</v>
+      </c>
+      <c r="G142" t="n">
+        <v>4.1508127902112324E-4</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>2005.0</v>
+      </c>
+      <c r="B143" t="s">
+        <v>50</v>
+      </c>
+      <c r="C143" t="n">
+        <v>1.6613472905129017E10</v>
+      </c>
+      <c r="D143" t="n">
+        <v>2.362749639E9</v>
+      </c>
+      <c r="E143" t="n">
+        <v>1.1223356739238475E13</v>
+      </c>
+      <c r="F143" t="n">
+        <v>7.031414852807017</v>
+      </c>
+      <c r="G143" t="n">
+        <v>0.001480258829076146</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>2005.0</v>
+      </c>
+      <c r="B144" t="s">
+        <v>51</v>
+      </c>
+      <c r="C144" t="n">
+        <v>5.844250744058088E9</v>
+      </c>
+      <c r="D144" t="n">
+        <v>2.475742822E9</v>
+      </c>
+      <c r="E144" t="n">
+        <v>3.2450435148802417E12</v>
+      </c>
+      <c r="F144" t="n">
+        <v>2.3606049433425715</v>
+      </c>
+      <c r="G144" t="n">
+        <v>0.0018009776193321002</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>2005.0</v>
+      </c>
+      <c r="B145" t="s">
+        <v>52</v>
+      </c>
+      <c r="C145" t="n">
+        <v>2.013641952195906E9</v>
+      </c>
+      <c r="D145" t="n">
+        <v>5.26070011E8</v>
+      </c>
+      <c r="E145" t="n">
+        <v>2.2747765038943402E11</v>
+      </c>
+      <c r="F145" t="n">
+        <v>3.827707168420794</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0.008852043041365247</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>2006.0</v>
+      </c>
+      <c r="B146" t="s">
+        <v>49</v>
+      </c>
+      <c r="C146" t="n">
+        <v>1.784605395910611E10</v>
+      </c>
+      <c r="D146" t="n">
+        <v>1.138991333E9</v>
+      </c>
+      <c r="E146" t="n">
+        <v>4.417924142258033E13</v>
+      </c>
+      <c r="F146" t="n">
+        <v>15.668296537517296</v>
+      </c>
+      <c r="G146" t="n">
+        <v>4.039465908526185E-4</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>2006.0</v>
+      </c>
+      <c r="B147" t="s">
+        <v>50</v>
+      </c>
+      <c r="C147" t="n">
+        <v>1.766916171519829E10</v>
+      </c>
+      <c r="D147" t="n">
+        <v>2.380715216E9</v>
+      </c>
+      <c r="E147" t="n">
+        <v>1.2145651463674889E13</v>
+      </c>
+      <c r="F147" t="n">
+        <v>7.421787199262514</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0.0014547726623016534</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>2006.0</v>
+      </c>
+      <c r="B148" t="s">
+        <v>51</v>
+      </c>
+      <c r="C148" t="n">
+        <v>6.021348035513534E9</v>
+      </c>
+      <c r="D148" t="n">
+        <v>2.515657524E9</v>
+      </c>
+      <c r="E148" t="n">
+        <v>3.4945700585109106E12</v>
+      </c>
+      <c r="F148" t="n">
+        <v>2.393548397613098</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0.0017230583261161807</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>2006.0</v>
+      </c>
+      <c r="B149" t="s">
+        <v>52</v>
+      </c>
+      <c r="C149" t="n">
+        <v>2.0815841085036569E9</v>
+      </c>
+      <c r="D149" t="n">
+        <v>5.40673587E8</v>
+      </c>
+      <c r="E149" t="n">
+        <v>2.385171535383432E11</v>
+      </c>
+      <c r="F149" t="n">
+        <v>3.8499829815131266</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0.008727188286560817</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>2007.0</v>
+      </c>
+      <c r="B150" t="s">
+        <v>49</v>
+      </c>
+      <c r="C150" t="n">
+        <v>1.8063313838900093E10</v>
+      </c>
+      <c r="D150" t="n">
+        <v>1.147978847E9</v>
+      </c>
+      <c r="E150" t="n">
+        <v>4.533647249119179E13</v>
+      </c>
+      <c r="F150" t="n">
+        <v>15.734883866636345</v>
+      </c>
+      <c r="G150" t="n">
+        <v>3.9842786274140607E-4</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>2007.0</v>
+      </c>
+      <c r="B151" t="s">
+        <v>50</v>
+      </c>
+      <c r="C151" t="n">
+        <v>1.8553530525235126E10</v>
+      </c>
+      <c r="D151" t="n">
+        <v>2.398786882E9</v>
+      </c>
+      <c r="E151" t="n">
+        <v>1.3224832182456027E13</v>
+      </c>
+      <c r="F151" t="n">
+        <v>7.7345472682283605</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0.0014029312636456828</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>2007.0</v>
+      </c>
+      <c r="B152" t="s">
+        <v>51</v>
+      </c>
+      <c r="C152" t="n">
+        <v>6.281646630069783E9</v>
+      </c>
+      <c r="D152" t="n">
+        <v>2.555583372E9</v>
+      </c>
+      <c r="E152" t="n">
+        <v>3.7737431412755854E12</v>
+      </c>
+      <c r="F152" t="n">
+        <v>2.4580088831747897</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0.0016645665576344676</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>2007.0</v>
+      </c>
+      <c r="B153" t="s">
+        <v>52</v>
+      </c>
+      <c r="C153" t="n">
+        <v>2.1490292990883117E9</v>
+      </c>
+      <c r="D153" t="n">
+        <v>5.55663714E8</v>
+      </c>
+      <c r="E153" t="n">
+        <v>2.5307953577221826E11</v>
+      </c>
+      <c r="F153" t="n">
+        <v>3.8674997933881854</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0.008491517469126877</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>2008.0</v>
+      </c>
+      <c r="B154" t="s">
+        <v>49</v>
+      </c>
+      <c r="C154" t="n">
+        <v>1.7762210863812527E10</v>
+      </c>
+      <c r="D154" t="n">
+        <v>1.157049809E9</v>
+      </c>
+      <c r="E154" t="n">
+        <v>4.549455022027519E13</v>
+      </c>
+      <c r="F154" t="n">
+        <v>15.351293199005685</v>
+      </c>
+      <c r="G154" t="n">
+        <v>3.9042502404819E-4</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>2008.0</v>
+      </c>
+      <c r="B155" t="s">
+        <v>50</v>
+      </c>
+      <c r="C155" t="n">
+        <v>1.8964517253659645E10</v>
+      </c>
+      <c r="D155" t="n">
+        <v>2.417122801E9</v>
+      </c>
+      <c r="E155" t="n">
+        <v>1.4007241516543852E13</v>
+      </c>
+      <c r="F155" t="n">
+        <v>7.8459055724490865</v>
+      </c>
+      <c r="G155" t="n">
+        <v>0.0013539080647150111</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>2008.0</v>
+      </c>
+      <c r="B156" t="s">
+        <v>51</v>
+      </c>
+      <c r="C156" t="n">
+        <v>6.441320215254601E9</v>
+      </c>
+      <c r="D156" t="n">
+        <v>2.595613801E9</v>
+      </c>
+      <c r="E156" t="n">
+        <v>3.962676284910106E12</v>
+      </c>
+      <c r="F156" t="n">
+        <v>2.481617339518299</v>
+      </c>
+      <c r="G156" t="n">
+        <v>0.0016254974547840774</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>2008.0</v>
+      </c>
+      <c r="B157" t="s">
+        <v>52</v>
+      </c>
+      <c r="C157" t="n">
+        <v>2.198014063305132E9</v>
+      </c>
+      <c r="D157" t="n">
+        <v>5.70972243E8</v>
+      </c>
+      <c r="E157" t="n">
+        <v>2.6556588107554117E11</v>
+      </c>
+      <c r="F157" t="n">
+        <v>3.8495988031858355</v>
+      </c>
+      <c r="G157" t="n">
+        <v>0.008276718584492783</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>2009.0</v>
+      </c>
+      <c r="B158" t="s">
+        <v>49</v>
+      </c>
+      <c r="C158" t="n">
+        <v>1.6947125059873447E10</v>
+      </c>
+      <c r="D158" t="n">
+        <v>1.165829503E9</v>
+      </c>
+      <c r="E158" t="n">
+        <v>4.39290816068182E13</v>
+      </c>
+      <c r="F158" t="n">
+        <v>14.536538161252425</v>
+      </c>
+      <c r="G158" t="n">
+        <v>3.857837323246725E-4</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>2009.0</v>
+      </c>
+      <c r="B159" t="s">
+        <v>50</v>
+      </c>
+      <c r="C159" t="n">
+        <v>1.9277148370114872E10</v>
+      </c>
+      <c r="D159" t="n">
+        <v>2.435911971E9</v>
+      </c>
+      <c r="E159" t="n">
+        <v>1.4252643652835277E13</v>
+      </c>
+      <c r="F159" t="n">
+        <v>7.9137294777533125</v>
+      </c>
+      <c r="G159" t="n">
+        <v>0.0013525314208132938</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>2009.0</v>
+      </c>
+      <c r="B160" t="s">
+        <v>51</v>
+      </c>
+      <c r="C160" t="n">
+        <v>6.621717760669191E9</v>
+      </c>
+      <c r="D160" t="n">
+        <v>2.635874243E9</v>
+      </c>
+      <c r="E160" t="n">
+        <v>4.1618692255590024E12</v>
+      </c>
+      <c r="F160" t="n">
+        <v>2.512152382934906</v>
+      </c>
+      <c r="G160" t="n">
+        <v>0.001591044168327945</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>2009.0</v>
+      </c>
+      <c r="B161" t="s">
+        <v>52</v>
+      </c>
+      <c r="C161" t="n">
+        <v>2.1334755964343128E9</v>
+      </c>
+      <c r="D161" t="n">
+        <v>5.86508535E8</v>
+      </c>
+      <c r="E161" t="n">
+        <v>2.795963334391631E11</v>
+      </c>
+      <c r="F161" t="n">
+        <v>3.6375866148892664</v>
+      </c>
+      <c r="G161" t="n">
+        <v>0.0076305564175022786</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>2010.0</v>
+      </c>
+      <c r="B162" t="s">
+        <v>49</v>
+      </c>
+      <c r="C162" t="n">
+        <v>1.7557803033452534E10</v>
+      </c>
+      <c r="D162" t="n">
+        <v>1.174048986E9</v>
+      </c>
+      <c r="E162" t="n">
+        <v>4.521606361032776E13</v>
+      </c>
+      <c r="F162" t="n">
+        <v>14.954915206112647</v>
+      </c>
+      <c r="G162" t="n">
+        <v>3.8830896879404983E-4</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>2010.0</v>
+      </c>
+      <c r="B163" t="s">
+        <v>50</v>
+      </c>
+      <c r="C163" t="n">
+        <v>2.0506263463597866E10</v>
+      </c>
+      <c r="D163" t="n">
+        <v>2.455251976E9</v>
+      </c>
+      <c r="E163" t="n">
+        <v>1.5318833192840092E13</v>
+      </c>
+      <c r="F163" t="n">
+        <v>8.351999576436901</v>
+      </c>
+      <c r="G163" t="n">
+        <v>0.0013386308999814907</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>2010.0</v>
+      </c>
+      <c r="B164" t="s">
+        <v>51</v>
+      </c>
+      <c r="C164" t="n">
+        <v>6.861971613644552E9</v>
+      </c>
+      <c r="D164" t="n">
+        <v>2.676446196E9</v>
+      </c>
+      <c r="E164" t="n">
+        <v>4.472275986086018E12</v>
+      </c>
+      <c r="F164" t="n">
+        <v>2.563836935672348</v>
+      </c>
+      <c r="G164" t="n">
+        <v>0.0015343354558156224</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>2010.0</v>
+      </c>
+      <c r="B165" t="s">
+        <v>52</v>
+      </c>
+      <c r="C165" t="n">
+        <v>2.236480026495071E9</v>
+      </c>
+      <c r="D165" t="n">
+        <v>6.02213769E8</v>
+      </c>
+      <c r="E165" t="n">
+        <v>2.9841683847993884E11</v>
+      </c>
+      <c r="F165" t="n">
+        <v>3.7137643501722573</v>
+      </c>
+      <c r="G165" t="n">
+        <v>0.007494483347143358</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="B166" t="s">
+        <v>49</v>
+      </c>
+      <c r="C166" t="n">
+        <v>1.7566457627774193E10</v>
+      </c>
+      <c r="D166" t="n">
+        <v>1.181597565E9</v>
+      </c>
+      <c r="E166" t="n">
+        <v>4.6054558000335555E13</v>
+      </c>
+      <c r="F166" t="n">
+        <v>14.866700937873203</v>
+      </c>
+      <c r="G166" t="n">
+        <v>3.8142712449104827E-4</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="B167" t="s">
+        <v>50</v>
+      </c>
+      <c r="C167" t="n">
+        <v>2.16513241726449E10</v>
+      </c>
+      <c r="D167" t="n">
+        <v>2.475207253E9</v>
+      </c>
+      <c r="E167" t="n">
+        <v>1.6290714587869967E13</v>
+      </c>
+      <c r="F167" t="n">
+        <v>8.747277282095498</v>
+      </c>
+      <c r="G167" t="n">
+        <v>0.0013290592046076625</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="B168" t="s">
+        <v>51</v>
+      </c>
+      <c r="C168" t="n">
+        <v>7.098201370884714E9</v>
+      </c>
+      <c r="D168" t="n">
+        <v>2.717358896E9</v>
+      </c>
+      <c r="E168" t="n">
+        <v>4.717510571353761E12</v>
+      </c>
+      <c r="F168" t="n">
+        <v>2.612169257926655</v>
+      </c>
+      <c r="G168" t="n">
+        <v>0.0015046498070374814</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="B169" t="s">
+        <v>52</v>
+      </c>
+      <c r="C169" t="n">
+        <v>2.2571856123728795E9</v>
+      </c>
+      <c r="D169" t="n">
+        <v>6.1806208E8</v>
+      </c>
+      <c r="E169" t="n">
+        <v>3.1192324418805145E11</v>
+      </c>
+      <c r="F169" t="n">
+        <v>3.652037045166854</v>
+      </c>
+      <c r="G169" t="n">
+        <v>0.00723634950081525</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="B170" t="s">
+        <v>49</v>
+      </c>
+      <c r="C170" t="n">
+        <v>1.750964911867617E10</v>
+      </c>
+      <c r="D170" t="n">
+        <v>1.188549406E9</v>
+      </c>
+      <c r="E170" t="n">
+        <v>4.662625189622308E13</v>
+      </c>
+      <c r="F170" t="n">
+        <v>14.731948903667341</v>
+      </c>
+      <c r="G170" t="n">
+        <v>3.7553198909592226E-4</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="B171" t="s">
+        <v>50</v>
+      </c>
+      <c r="C171" t="n">
+        <v>2.2169292512296402E10</v>
+      </c>
+      <c r="D171" t="n">
+        <v>2.495635047E9</v>
+      </c>
+      <c r="E171" t="n">
+        <v>1.7149216394800582E13</v>
+      </c>
+      <c r="F171" t="n">
+        <v>8.883226952172388</v>
+      </c>
+      <c r="G171" t="n">
+        <v>0.0012927291837671279</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="B172" t="s">
+        <v>51</v>
+      </c>
+      <c r="C172" t="n">
+        <v>7.340269670163298E9</v>
+      </c>
+      <c r="D172" t="n">
+        <v>2.758559586E9</v>
+      </c>
+      <c r="E172" t="n">
+        <v>4.960043895167591E12</v>
+      </c>
+      <c r="F172" t="n">
+        <v>2.660906694717051</v>
+      </c>
+      <c r="G172" t="n">
+        <v>0.0014798799819724748</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="B173" t="s">
+        <v>52</v>
+      </c>
+      <c r="C173" t="n">
+        <v>2.19392495202083E9</v>
+      </c>
+      <c r="D173" t="n">
+        <v>6.34089912E8</v>
+      </c>
+      <c r="E173" t="n">
+        <v>3.291551603595711E11</v>
+      </c>
+      <c r="F173" t="n">
+        <v>3.459958770044003</v>
+      </c>
+      <c r="G173" t="n">
+        <v>0.006665321453943402</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="B174" t="s">
+        <v>49</v>
+      </c>
+      <c r="C174" t="n">
+        <v>1.7563024483120193E10</v>
+      </c>
+      <c r="D174" t="n">
+        <v>1.19504785E9</v>
+      </c>
+      <c r="E174" t="n">
+        <v>4.727264124827909E13</v>
+      </c>
+      <c r="F174" t="n">
+        <v>14.696503142631647</v>
+      </c>
+      <c r="G174" t="n">
+        <v>3.7152619399618495E-4</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="B175" t="s">
+        <v>50</v>
+      </c>
+      <c r="C175" t="n">
+        <v>2.2726050976389393E10</v>
+      </c>
+      <c r="D175" t="n">
+        <v>2.516161532E9</v>
+      </c>
+      <c r="E175" t="n">
+        <v>1.8016328200363066E13</v>
+      </c>
+      <c r="F175" t="n">
+        <v>9.032031802157523</v>
+      </c>
+      <c r="G175" t="n">
+        <v>0.0012614141307623057</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="B176" t="s">
+        <v>51</v>
+      </c>
+      <c r="C176" t="n">
+        <v>7.390315873435264E9</v>
+      </c>
+      <c r="D176" t="n">
+        <v>2.799944634E9</v>
+      </c>
+      <c r="E176" t="n">
+        <v>5.236077370479703E12</v>
+      </c>
+      <c r="F176" t="n">
+        <v>2.6394507175941766</v>
+      </c>
+      <c r="G176" t="n">
+        <v>0.0014114222060775622</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="B177" t="s">
+        <v>52</v>
+      </c>
+      <c r="C177" t="n">
+        <v>2.2297485060383987E9</v>
+      </c>
+      <c r="D177" t="n">
+        <v>6.50379406E8</v>
+      </c>
+      <c r="E177" t="n">
+        <v>3.4806803131833044E11</v>
+      </c>
+      <c r="F177" t="n">
+        <v>3.4283811656213463</v>
+      </c>
+      <c r="G177" t="n">
+        <v>0.006406070955706792</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="B178" t="s">
+        <v>49</v>
+      </c>
+      <c r="C178" t="n">
+        <v>1.7553054871698227E10</v>
+      </c>
+      <c r="D178" t="n">
+        <v>1.20132178E9</v>
+      </c>
+      <c r="E178" t="n">
+        <v>4.8210383213287586E13</v>
+      </c>
+      <c r="F178" t="n">
+        <v>14.611451456160419</v>
+      </c>
+      <c r="G178" t="n">
+        <v>3.6409283025280563E-4</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="B179" t="s">
+        <v>50</v>
+      </c>
+      <c r="C179" t="n">
+        <v>2.298846906468124E10</v>
+      </c>
+      <c r="D179" t="n">
+        <v>2.536277141E9</v>
+      </c>
+      <c r="E179" t="n">
+        <v>1.877638153678264E13</v>
+      </c>
+      <c r="F179" t="n">
+        <v>9.063863208425786</v>
+      </c>
+      <c r="G179" t="n">
+        <v>0.0012243290337729442</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="B180" t="s">
+        <v>51</v>
+      </c>
+      <c r="C180" t="n">
+        <v>7.668526743492322E9</v>
+      </c>
+      <c r="D180" t="n">
+        <v>2.841366517E9</v>
+      </c>
+      <c r="E180" t="n">
+        <v>5.53391988393415E12</v>
+      </c>
+      <c r="F180" t="n">
+        <v>2.6988868551843788</v>
+      </c>
+      <c r="G180" t="n">
+        <v>0.0013857314352806723</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="B181" t="s">
+        <v>52</v>
+      </c>
+      <c r="C181" t="n">
+        <v>2.2652164310313306E9</v>
+      </c>
+      <c r="D181" t="n">
+        <v>6.67047382E8</v>
+      </c>
+      <c r="E181" t="n">
+        <v>3.67917508918966E11</v>
+      </c>
+      <c r="F181" t="n">
+        <v>3.3958853481135924</v>
+      </c>
+      <c r="G181" t="n">
+        <v>0.006156859557152105</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="B182" t="s">
+        <v>49</v>
+      </c>
+      <c r="C182" t="n">
+        <v>1.748880574293801E10</v>
+      </c>
+      <c r="D182" t="n">
+        <v>1.20753775E9</v>
+      </c>
+      <c r="E182" t="n">
+        <v>4.934587310146463E13</v>
+      </c>
+      <c r="F182" t="n">
+        <v>14.48303023482124</v>
+      </c>
+      <c r="G182" t="n">
+        <v>3.544127328941501E-4</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="B183" t="s">
+        <v>50</v>
+      </c>
+      <c r="C183" t="n">
+        <v>2.3019729671655506E10</v>
+      </c>
+      <c r="D183" t="n">
+        <v>2.555589173E9</v>
+      </c>
+      <c r="E183" t="n">
+        <v>1.8978722812636277E13</v>
+      </c>
+      <c r="F183" t="n">
+        <v>9.00760181443119</v>
+      </c>
+      <c r="G183" t="n">
+        <v>0.0012129230137830284</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="B184" t="s">
+        <v>51</v>
+      </c>
+      <c r="C184" t="n">
+        <v>7.798825377716854E9</v>
+      </c>
+      <c r="D184" t="n">
+        <v>2.882709589E9</v>
+      </c>
+      <c r="E184" t="n">
+        <v>5.849219224686478E12</v>
+      </c>
+      <c r="F184" t="n">
+        <v>2.7053801768572305</v>
+      </c>
+      <c r="G184" t="n">
+        <v>0.0013333104946386886</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="B185" t="s">
+        <v>52</v>
+      </c>
+      <c r="C185" t="n">
+        <v>2.32855256494939E9</v>
+      </c>
+      <c r="D185" t="n">
+        <v>6.84182607E8</v>
+      </c>
+      <c r="E185" t="n">
+        <v>3.7447633117411536E11</v>
+      </c>
+      <c r="F185" t="n">
+        <v>3.4034080099750184</v>
+      </c>
+      <c r="G185" t="n">
+        <v>0.006218156852927277</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="B186" t="s">
+        <v>49</v>
+      </c>
+      <c r="C186" t="n">
+        <v>1.7437025465378872E10</v>
+      </c>
+      <c r="D186" t="n">
+        <v>1.21373297E9</v>
+      </c>
+      <c r="E186" t="n">
+        <v>5.016124135026283E13</v>
+      </c>
+      <c r="F186" t="n">
+        <v>14.366442946160449</v>
+      </c>
+      <c r="G186" t="n">
+        <v>3.476194965674929E-4</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="B187" t="s">
+        <v>50</v>
+      </c>
+      <c r="C187" t="n">
+        <v>2.3131952302682728E10</v>
+      </c>
+      <c r="D187" t="n">
+        <v>2.57396516E9</v>
+      </c>
+      <c r="E187" t="n">
+        <v>1.9644774626520215E13</v>
+      </c>
+      <c r="F187" t="n">
+        <v>8.986894097153487</v>
+      </c>
+      <c r="G187" t="n">
+        <v>0.0011775117171084703</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="B188" t="s">
+        <v>51</v>
+      </c>
+      <c r="C188" t="n">
+        <v>8.012665316834642E9</v>
+      </c>
+      <c r="D188" t="n">
+        <v>2.923926122E9</v>
+      </c>
+      <c r="E188" t="n">
+        <v>6.152831998947298E12</v>
+      </c>
+      <c r="F188" t="n">
+        <v>2.740378854495094</v>
+      </c>
+      <c r="G188" t="n">
+        <v>0.0013022727287541002</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="B189" t="s">
+        <v>52</v>
+      </c>
+      <c r="C189" t="n">
+        <v>2.3855472124887953E9</v>
+      </c>
+      <c r="D189" t="n">
+        <v>7.01797868E8</v>
+      </c>
+      <c r="E189" t="n">
+        <v>3.837542103785017E11</v>
+      </c>
+      <c r="F189" t="n">
+        <v>3.39919415726808</v>
+      </c>
+      <c r="G189" t="n">
+        <v>0.006216341470588425</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>2017.0</v>
+      </c>
+      <c r="B190" t="s">
+        <v>49</v>
+      </c>
+      <c r="C190" t="n">
+        <v>1.757977024968467E10</v>
+      </c>
+      <c r="D190" t="n">
+        <v>1.219848107E9</v>
+      </c>
+      <c r="E190" t="n">
+        <v>5.117306385542368E13</v>
+      </c>
+      <c r="F190" t="n">
+        <v>14.411442005610843</v>
+      </c>
+      <c r="G190" t="n">
+        <v>3.435356206021157E-4</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>2017.0</v>
+      </c>
+      <c r="B191" t="s">
+        <v>50</v>
+      </c>
+      <c r="C191" t="n">
+        <v>2.3432322693737926E10</v>
+      </c>
+      <c r="D191" t="n">
+        <v>2.591423712E9</v>
+      </c>
+      <c r="E191" t="n">
+        <v>2.0585650359112383E13</v>
+      </c>
+      <c r="F191" t="n">
+        <v>9.042258348270423</v>
+      </c>
+      <c r="G191" t="n">
+        <v>0.001138284304113105</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>2017.0</v>
+      </c>
+      <c r="B192" t="s">
+        <v>51</v>
+      </c>
+      <c r="C192" t="n">
+        <v>8.207087768993133E9</v>
+      </c>
+      <c r="D192" t="n">
+        <v>2.965015516E9</v>
+      </c>
+      <c r="E192" t="n">
+        <v>6.481298712051131E12</v>
+      </c>
+      <c r="F192" t="n">
+        <v>2.76797464455263</v>
+      </c>
+      <c r="G192" t="n">
+        <v>0.0012662721058872232</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>2017.0</v>
+      </c>
+      <c r="B193" t="s">
+        <v>52</v>
+      </c>
+      <c r="C193" t="n">
+        <v>2.430568687267848E9</v>
+      </c>
+      <c r="D193" t="n">
+        <v>7.19879164E8</v>
+      </c>
+      <c r="E193" t="n">
+        <v>3.925354281775495E11</v>
+      </c>
+      <c r="F193" t="n">
+        <v>3.376356489834241</v>
+      </c>
+      <c r="G193" t="n">
+        <v>0.006191972782055398</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>